--- a/FileOutput/StockAccountingResults.xlsx
+++ b/FileOutput/StockAccountingResults.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJTLiveProject\ERP_StockAccountingHybridFrame\FileInput\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{73925270-4CD3-4E67-8B60-6DA3B4A8FEA5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4F6A21CB-2D7C-473B-A159-B7B86238BB41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8940" windowWidth="23040" xWindow="0" xr2:uid="{EA4BDF87-14E1-4234-BC6E-4AA57CCA21BB}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="7608" activeTab="1" xr2:uid="{EA4BDF87-14E1-4234-BC6E-4AA57CCA21BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
-    <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
+    <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E23"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -191,7 +187,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,40 +210,40 @@
       <family val="3"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,32 +270,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -317,10 +312,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -355,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -407,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -518,21 +513,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -549,7 +544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -601,15 +596,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E39E52-41C3-40A3-B9F4-53B14048B1F6}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E39E52-41C3-40A3-B9F4-53B14048B1F6}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -617,13 +612,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="32.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="25.8" r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +642,7 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -661,7 +656,7 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -675,7 +670,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -689,7 +684,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="8">
+      <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -703,7 +698,7 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -717,19 +712,19 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="10" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C3DF39-C204-4EAA-A8DF-F841C55B6125}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C3DF39-C204-4EAA-A8DF-F841C55B6125}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -737,15 +732,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="32.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="27.77734375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="41.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="28.21875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="25.8" r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1130,7 +1125,7 @@
       <c r="F34" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>